--- a/biology/Médecine/Dysplasies_osseuses_en_rapport_avec_le_gène_SOST/Dysplasies_osseuses_en_rapport_avec_le_gène_SOST.xlsx
+++ b/biology/Médecine/Dysplasies_osseuses_en_rapport_avec_le_gène_SOST/Dysplasies_osseuses_en_rapport_avec_le_gène_SOST.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysplasies_osseuses_en_rapport_avec_le_g%C3%A8ne_SOST</t>
+          <t>Dysplasies_osseuses_en_rapport_avec_le_gène_SOST</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les dysplasies osseuses en rapport avec le gène SOST sont des  manifestations secondaires à une production exagérée de tissu osseux par l'ostéoblaste. Les signes cliniques majeurs sont la croissance excessive du squelette et l'existence de syndactylie habituellement entre l'index et le majeur.
 Les deux maladies connues en rapport avec le gène SOST sont la maladie de Van Buchem et la sclérostéose.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dysplasies_osseuses_en_rapport_avec_le_g%C3%A8ne_SOST</t>
+          <t>Dysplasies_osseuses_en_rapport_avec_le_gène_SOST</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Autres noms</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hyperostose corticale généralisée
 Hyperostose corticale syndactylie</t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dysplasies_osseuses_en_rapport_avec_le_g%C3%A8ne_SOST</t>
+          <t>Dysplasies_osseuses_en_rapport_avec_le_gène_SOST</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,10 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Van Buchem
-Les anomalies génétiques ne semblent pas atteindre directement le gène SOST mais une région mesurant 52 000 paires de bases située sous le gène SOST.
-Sclérostéose
-Mutation du gène SOST situé sur le locus q12-q21 du chromosome 17 codant la sclérostine ; quatre mutations sont connues[1].
+          <t>Van Buchem</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les anomalies génétiques ne semblent pas atteindre directement le gène SOST mais une région mesurant 52 000 paires de bases située sous le gène SOST.
 </t>
         </is>
       </c>
@@ -562,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dysplasies_osseuses_en_rapport_avec_le_g%C3%A8ne_SOST</t>
+          <t>Dysplasies_osseuses_en_rapport_avec_le_gène_SOST</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +594,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sclérostéose</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mutation du gène SOST situé sur le locus q12-q21 du chromosome 17 codant la sclérostine ; quatre mutations sont connues.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dysplasies_osseuses_en_rapport_avec_le_gène_SOST</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dysplasies_osseuses_en_rapport_avec_le_g%C3%A8ne_SOST</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Incidence et prévalence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La sclérostéose atteint surtout la population afrikaner d’Afrique du Sud.
 La maladie de Van Buchem est surtout localisée à Urk (Pays-Bas).
@@ -588,39 +644,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Dysplasies_osseuses_en_rapport_avec_le_g%C3%A8ne_SOST</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dysplasies_osseuses_en_rapport_avec_le_g%C3%A8ne_SOST</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dysplasies_osseuses_en_rapport_avec_le_g%C3%A8ne_SOST</t>
+          <t>Dysplasies_osseuses_en_rapport_avec_le_gène_SOST</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,15 +665,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Diagnostic</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les caractéristiques cliniques ainsi que les examens radiographiques font le diagnostic de ces maladies.
-</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -651,7 +678,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dysplasies_osseuses_en_rapport_avec_le_g%C3%A8ne_SOST</t>
+          <t>Dysplasies_osseuses_en_rapport_avec_le_gène_SOST</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -666,16 +693,89 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les caractéristiques cliniques ainsi que les examens radiographiques font le diagnostic de ces maladies.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dysplasies_osseuses_en_rapport_avec_le_gène_SOST</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dysplasies_osseuses_en_rapport_avec_le_g%C3%A8ne_SOST</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Conseil génétique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Transmission
-Transmission autosomique récessive.
-Risque pour la famille
-Le risque est celui de toute maladie génétique à transmission autosomique récessive.
-Diagnostic anténatal</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Transmission</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Transmission autosomique récessive.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dysplasies_osseuses_en_rapport_avec_le_gène_SOST</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dysplasies_osseuses_en_rapport_avec_le_g%C3%A8ne_SOST</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Conseil génétique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Risque pour la famille</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le risque est celui de toute maladie génétique à transmission autosomique récessive.
+</t>
         </is>
       </c>
     </row>
